--- a/database/AN_ep/expdata/1002.xlsx
+++ b/database/AN_ep/expdata/1002.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_ep/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A425BDA-6A86-7540-A59E-C424E6DFEFB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C7E473-AD1D-CD46-B1BF-0289E6FEACB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22540" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="28040" windowHeight="16500" xr2:uid="{64EDE406-C379-214B-AF1B-6846BE1BA51A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -73,20 +73,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,11 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,14 +417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E301940-F3C5-9B49-95E8-FA875E142B23}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -628,14 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>